--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Oprm1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Oprm1.xlsx
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H2">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,10 +555,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.049158666666667</v>
+        <v>0.07215833333333334</v>
       </c>
       <c r="N2">
-        <v>3.147476</v>
+        <v>0.216475</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>170.382629908124</v>
+        <v>14.53555609792222</v>
       </c>
       <c r="R2">
-        <v>1533.443669173116</v>
+        <v>130.8200048813</v>
       </c>
       <c r="S2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="T2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,10 +605,10 @@
         <v>196.252094</v>
       </c>
       <c r="I3">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J3">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,10 +617,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.049158666666667</v>
+        <v>0.07215833333333334</v>
       </c>
       <c r="N3">
-        <v>3.147476</v>
+        <v>0.216475</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>68.63319509052711</v>
+        <v>4.720408005405556</v>
       </c>
       <c r="R3">
-        <v>617.6987558147439</v>
+        <v>42.48367204865</v>
       </c>
       <c r="S3">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="T3">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H4">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I4">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J4">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,10 +679,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.049158666666667</v>
+        <v>0.07215833333333334</v>
       </c>
       <c r="N4">
-        <v>3.147476</v>
+        <v>0.216475</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>64.18793325107066</v>
+        <v>4.360877425877779</v>
       </c>
       <c r="R4">
-        <v>577.6913992596359</v>
+        <v>39.2478968329</v>
       </c>
       <c r="S4">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="T4">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H5">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I5">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J5">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,10 +741,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.049158666666667</v>
+        <v>0.07215833333333334</v>
       </c>
       <c r="N5">
-        <v>3.147476</v>
+        <v>0.216475</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>132.5160242583422</v>
+        <v>6.455684377430557</v>
       </c>
       <c r="R5">
-        <v>1192.64421832508</v>
+        <v>58.101159396875</v>
       </c>
       <c r="S5">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="T5">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
     </row>
   </sheetData>
